--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H2">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.65740233333333</v>
+        <v>13.93062366666667</v>
       </c>
       <c r="N2">
-        <v>46.972207</v>
+        <v>41.791871</v>
       </c>
       <c r="O2">
-        <v>0.5111560914107862</v>
+        <v>0.503910843485354</v>
       </c>
       <c r="P2">
-        <v>0.5111560914107862</v>
+        <v>0.5039108434853539</v>
       </c>
       <c r="Q2">
-        <v>2629.006492984237</v>
+        <v>2036.24664458721</v>
       </c>
       <c r="R2">
-        <v>23661.05843685813</v>
+        <v>18326.21980128489</v>
       </c>
       <c r="S2">
-        <v>0.223346895537981</v>
+        <v>0.2039546534519693</v>
       </c>
       <c r="T2">
-        <v>0.223346895537981</v>
+        <v>0.2039546534519693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H3">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.333505</v>
       </c>
       <c r="O3">
-        <v>0.275681647182037</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="P3">
-        <v>0.275681647182037</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="Q3">
-        <v>1417.901209859026</v>
+        <v>1234.33728420255</v>
       </c>
       <c r="R3">
-        <v>12761.11088873124</v>
+        <v>11109.03555782295</v>
       </c>
       <c r="S3">
-        <v>0.1204576079392207</v>
+        <v>0.1236337620059827</v>
       </c>
       <c r="T3">
-        <v>0.1204576079392207</v>
+        <v>0.1236337620059827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H4">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.186037</v>
+        <v>5.269891333333334</v>
       </c>
       <c r="N4">
-        <v>0.558111</v>
+        <v>15.809674</v>
       </c>
       <c r="O4">
-        <v>0.006073417783698461</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="P4">
-        <v>0.006073417783698461</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="Q4">
-        <v>31.237140779992</v>
+        <v>770.30280923574</v>
       </c>
       <c r="R4">
-        <v>281.134267019928</v>
+        <v>6932.72528312166</v>
       </c>
       <c r="S4">
-        <v>0.00265374712360435</v>
+        <v>0.07715511425316682</v>
       </c>
       <c r="T4">
-        <v>0.00265374712360435</v>
+        <v>0.07715511425316682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>167.908216</v>
+        <v>210.785085</v>
       </c>
       <c r="H5">
-        <v>503.724648</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I5">
-        <v>0.4369446032063231</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J5">
-        <v>0.4369446032063231</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.343411333333333</v>
+        <v>13.93062366666667</v>
       </c>
       <c r="N5">
-        <v>19.030234</v>
+        <v>41.791871</v>
       </c>
       <c r="O5">
-        <v>0.2070888436234783</v>
+        <v>0.503910843485354</v>
       </c>
       <c r="P5">
-        <v>0.2070888436234783</v>
+        <v>0.5039108434853539</v>
       </c>
       <c r="Q5">
-        <v>1065.110880334181</v>
+        <v>2936.367693681345</v>
       </c>
       <c r="R5">
-        <v>9585.997923007631</v>
+        <v>26427.3092431321</v>
       </c>
       <c r="S5">
-        <v>0.09048635260551703</v>
+        <v>0.2941126297073623</v>
       </c>
       <c r="T5">
-        <v>0.090486352605517</v>
+        <v>0.2941126297073622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,13 +791,13 @@
         <v>210.785085</v>
       </c>
       <c r="H6">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I6">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J6">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.65740233333333</v>
+        <v>8.444501666666666</v>
       </c>
       <c r="N6">
-        <v>46.972207</v>
+        <v>25.333505</v>
       </c>
       <c r="O6">
-        <v>0.5111560914107862</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="P6">
-        <v>0.5111560914107862</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="Q6">
-        <v>3300.346881710865</v>
+        <v>1779.975001590975</v>
       </c>
       <c r="R6">
-        <v>29703.12193539779</v>
+        <v>16019.77501431877</v>
       </c>
       <c r="S6">
-        <v>0.2803805286124859</v>
+        <v>0.178285958416521</v>
       </c>
       <c r="T6">
-        <v>0.2803805286124859</v>
+        <v>0.178285958416521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,13 +853,13 @@
         <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.444501666666666</v>
+        <v>5.269891333333334</v>
       </c>
       <c r="N7">
-        <v>25.333505</v>
+        <v>15.809674</v>
       </c>
       <c r="O7">
-        <v>0.275681647182037</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="P7">
-        <v>0.275681647182037</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="Q7">
-        <v>1779.975001590975</v>
+        <v>1110.81449263743</v>
       </c>
       <c r="R7">
-        <v>16019.77501431877</v>
+        <v>9997.33043373687</v>
       </c>
       <c r="S7">
-        <v>0.1512175385650296</v>
+        <v>0.1112614650575494</v>
       </c>
       <c r="T7">
-        <v>0.1512175385650296</v>
+        <v>0.1112614650575494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>210.785085</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H8">
-        <v>632.3552550000001</v>
+        <v>1.648481</v>
       </c>
       <c r="I8">
-        <v>0.5485223267879643</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J8">
-        <v>0.5485223267879643</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.186037</v>
+        <v>13.93062366666667</v>
       </c>
       <c r="N8">
-        <v>0.558111</v>
+        <v>41.791871</v>
       </c>
       <c r="O8">
-        <v>0.006073417783698461</v>
+        <v>0.503910843485354</v>
       </c>
       <c r="P8">
-        <v>0.006073417783698461</v>
+        <v>0.5039108434853539</v>
       </c>
       <c r="Q8">
-        <v>39.213824858145</v>
+        <v>7.654789477550112</v>
       </c>
       <c r="R8">
-        <v>352.924423723305</v>
+        <v>68.89310529795101</v>
       </c>
       <c r="S8">
-        <v>0.003331405254269681</v>
+        <v>0.0007667194636227422</v>
       </c>
       <c r="T8">
-        <v>0.003331405254269681</v>
+        <v>0.000766719463622742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>210.785085</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H9">
-        <v>632.3552550000001</v>
+        <v>1.648481</v>
       </c>
       <c r="I9">
-        <v>0.5485223267879643</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J9">
-        <v>0.5485223267879643</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.343411333333333</v>
+        <v>8.444501666666666</v>
       </c>
       <c r="N9">
-        <v>19.030234</v>
+        <v>25.333505</v>
       </c>
       <c r="O9">
-        <v>0.2070888436234783</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="P9">
-        <v>0.2070888436234783</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="Q9">
-        <v>1337.09649708663</v>
+        <v>4.640200183989444</v>
       </c>
       <c r="R9">
-        <v>12033.86847377967</v>
+        <v>41.761801655905</v>
       </c>
       <c r="S9">
-        <v>0.1135928543561792</v>
+        <v>0.0004647719975323443</v>
       </c>
       <c r="T9">
-        <v>0.1135928543561792</v>
+        <v>0.0004647719975323443</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H10">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I10">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J10">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.65740233333333</v>
+        <v>5.269891333333334</v>
       </c>
       <c r="N10">
-        <v>46.972207</v>
+        <v>15.809674</v>
       </c>
       <c r="O10">
-        <v>0.5111560914107862</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="P10">
-        <v>0.5111560914107862</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="Q10">
-        <v>0.7418946947603333</v>
+        <v>2.895771911688223</v>
       </c>
       <c r="R10">
-        <v>6.677052252843</v>
+        <v>26.061947205194</v>
       </c>
       <c r="S10">
-        <v>6.302756472188444E-05</v>
+        <v>0.0002900464726580538</v>
       </c>
       <c r="T10">
-        <v>6.302756472188444E-05</v>
+        <v>0.0002900464726580538</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.047383</v>
+        <v>3.410044</v>
       </c>
       <c r="H11">
-        <v>0.142149</v>
+        <v>10.230132</v>
       </c>
       <c r="I11">
-        <v>0.0001233039491868891</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J11">
-        <v>0.0001233039491868891</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.444501666666666</v>
+        <v>13.93062366666667</v>
       </c>
       <c r="N11">
-        <v>25.333505</v>
+        <v>41.791871</v>
       </c>
       <c r="O11">
-        <v>0.275681647182037</v>
+        <v>0.503910843485354</v>
       </c>
       <c r="P11">
-        <v>0.275681647182037</v>
+        <v>0.5039108434853539</v>
       </c>
       <c r="Q11">
-        <v>0.4001258224716666</v>
+        <v>47.50403965077466</v>
       </c>
       <c r="R11">
-        <v>3.601132402245</v>
+        <v>427.536356856972</v>
       </c>
       <c r="S11">
-        <v>3.399263581589179E-05</v>
+        <v>0.004758102349878372</v>
       </c>
       <c r="T11">
-        <v>3.399263581589179E-05</v>
+        <v>0.004758102349878371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.047383</v>
+        <v>3.410044</v>
       </c>
       <c r="H12">
-        <v>0.142149</v>
+        <v>10.230132</v>
       </c>
       <c r="I12">
-        <v>0.0001233039491868891</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J12">
-        <v>0.0001233039491868891</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.186037</v>
+        <v>8.444501666666666</v>
       </c>
       <c r="N12">
-        <v>0.558111</v>
+        <v>25.333505</v>
       </c>
       <c r="O12">
-        <v>0.006073417783698461</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="P12">
-        <v>0.006073417783698461</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="Q12">
-        <v>0.008814991171</v>
+        <v>28.79612224140666</v>
       </c>
       <c r="R12">
-        <v>0.079334920539</v>
+        <v>259.1651001726599</v>
       </c>
       <c r="S12">
-        <v>7.48876397791904E-07</v>
+        <v>0.002884278851051092</v>
       </c>
       <c r="T12">
-        <v>7.488763977919039E-07</v>
+        <v>0.002884278851051093</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.047383</v>
+        <v>3.410044</v>
       </c>
       <c r="H13">
-        <v>0.142149</v>
+        <v>10.230132</v>
       </c>
       <c r="I13">
-        <v>0.0001233039491868891</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J13">
-        <v>0.0001233039491868891</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.343411333333333</v>
+        <v>5.269891333333334</v>
       </c>
       <c r="N13">
-        <v>19.030234</v>
+        <v>15.809674</v>
       </c>
       <c r="O13">
-        <v>0.2070888436234783</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="P13">
-        <v>0.2070888436234783</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="Q13">
-        <v>0.3005698592073333</v>
+        <v>17.97056132188533</v>
       </c>
       <c r="R13">
-        <v>2.705128732866</v>
+        <v>161.735051896968</v>
       </c>
       <c r="S13">
-        <v>2.5534872251321E-05</v>
+        <v>0.001799968396012014</v>
       </c>
       <c r="T13">
-        <v>2.5534872251321E-05</v>
+        <v>0.001799968396012014</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.409147999999999</v>
+        <v>0.228434</v>
       </c>
       <c r="H14">
-        <v>16.227444</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I14">
-        <v>0.01407613089370371</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J14">
-        <v>0.01407613089370371</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.65740233333333</v>
+        <v>13.93062366666667</v>
       </c>
       <c r="N14">
-        <v>46.972207</v>
+        <v>41.791871</v>
       </c>
       <c r="O14">
-        <v>0.5111560914107862</v>
+        <v>0.503910843485354</v>
       </c>
       <c r="P14">
-        <v>0.5111560914107862</v>
+        <v>0.5039108434853539</v>
       </c>
       <c r="Q14">
-        <v>84.69320651654532</v>
+        <v>3.182228086671334</v>
       </c>
       <c r="R14">
-        <v>762.2388586489079</v>
+        <v>28.64005278004201</v>
       </c>
       <c r="S14">
-        <v>0.007195100049812206</v>
+        <v>0.0003187385125212802</v>
       </c>
       <c r="T14">
-        <v>0.007195100049812207</v>
+        <v>0.0003187385125212801</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.409147999999999</v>
+        <v>0.228434</v>
       </c>
       <c r="H15">
-        <v>16.227444</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I15">
-        <v>0.01407613089370371</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J15">
-        <v>0.01407613089370371</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>25.333505</v>
       </c>
       <c r="O15">
-        <v>0.275681647182037</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="P15">
-        <v>0.275681647182037</v>
+        <v>0.3054619850111623</v>
       </c>
       <c r="Q15">
-        <v>45.67755930124665</v>
+        <v>1.929011293723333</v>
       </c>
       <c r="R15">
-        <v>411.09803371122</v>
+        <v>17.36110164351</v>
       </c>
       <c r="S15">
-        <v>0.003880530950726198</v>
+        <v>0.0001932137400752029</v>
       </c>
       <c r="T15">
-        <v>0.003880530950726198</v>
+        <v>0.000193213740075203</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,356 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.409147999999999</v>
+        <v>0.228434</v>
       </c>
       <c r="H16">
-        <v>16.227444</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I16">
-        <v>0.01407613089370371</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J16">
-        <v>0.01407613089370371</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.186037</v>
+        <v>5.269891333333334</v>
       </c>
       <c r="N16">
-        <v>0.558111</v>
+        <v>15.809674</v>
       </c>
       <c r="O16">
-        <v>0.006073417783698461</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="P16">
-        <v>0.006073417783698461</v>
+        <v>0.1906271715034838</v>
       </c>
       <c r="Q16">
-        <v>1.006301666476</v>
+        <v>1.203822356838667</v>
       </c>
       <c r="R16">
-        <v>9.056714998283999</v>
+        <v>10.834401211548</v>
       </c>
       <c r="S16">
-        <v>8.549022369548744E-05</v>
+        <v>0.0001205773240974628</v>
       </c>
       <c r="T16">
-        <v>8.549022369548744E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.409147999999999</v>
-      </c>
-      <c r="H17">
-        <v>16.227444</v>
-      </c>
-      <c r="I17">
-        <v>0.01407613089370371</v>
-      </c>
-      <c r="J17">
-        <v>0.01407613089370371</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>6.343411333333333</v>
-      </c>
-      <c r="N17">
-        <v>19.030234</v>
-      </c>
-      <c r="O17">
-        <v>0.2070888436234783</v>
-      </c>
-      <c r="P17">
-        <v>0.2070888436234783</v>
-      </c>
-      <c r="Q17">
-        <v>34.31245072687733</v>
-      </c>
-      <c r="R17">
-        <v>308.812056541896</v>
-      </c>
-      <c r="S17">
-        <v>0.00291500966946982</v>
-      </c>
-      <c r="T17">
-        <v>0.00291500966946982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1282086666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.384626</v>
-      </c>
-      <c r="I18">
-        <v>0.0003336351628218026</v>
-      </c>
-      <c r="J18">
-        <v>0.0003336351628218027</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>15.65740233333333</v>
-      </c>
-      <c r="N18">
-        <v>46.972207</v>
-      </c>
-      <c r="O18">
-        <v>0.5111560914107862</v>
-      </c>
-      <c r="P18">
-        <v>0.5111560914107862</v>
-      </c>
-      <c r="Q18">
-        <v>2.007414676620222</v>
-      </c>
-      <c r="R18">
-        <v>18.066732089582</v>
-      </c>
-      <c r="S18">
-        <v>0.0001705396457851939</v>
-      </c>
-      <c r="T18">
-        <v>0.0001705396457851939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1282086666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.384626</v>
-      </c>
-      <c r="I19">
-        <v>0.0003336351628218026</v>
-      </c>
-      <c r="J19">
-        <v>0.0003336351628218027</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.444501666666666</v>
-      </c>
-      <c r="N19">
-        <v>25.333505</v>
-      </c>
-      <c r="O19">
-        <v>0.275681647182037</v>
-      </c>
-      <c r="P19">
-        <v>0.275681647182037</v>
-      </c>
-      <c r="Q19">
-        <v>1.082658299347778</v>
-      </c>
-      <c r="R19">
-        <v>9.74392469413</v>
-      </c>
-      <c r="S19">
-        <v>9.197709124456167E-05</v>
-      </c>
-      <c r="T19">
-        <v>9.197709124456169E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.1282086666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.384626</v>
-      </c>
-      <c r="I20">
-        <v>0.0003336351628218026</v>
-      </c>
-      <c r="J20">
-        <v>0.0003336351628218027</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.186037</v>
-      </c>
-      <c r="N20">
-        <v>0.558111</v>
-      </c>
-      <c r="O20">
-        <v>0.006073417783698461</v>
-      </c>
-      <c r="P20">
-        <v>0.006073417783698461</v>
-      </c>
-      <c r="Q20">
-        <v>0.02385155572066667</v>
-      </c>
-      <c r="R20">
-        <v>0.214664001486</v>
-      </c>
-      <c r="S20">
-        <v>2.026305731149068E-06</v>
-      </c>
-      <c r="T20">
-        <v>2.026305731149068E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1282086666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.384626</v>
-      </c>
-      <c r="I21">
-        <v>0.0003336351628218026</v>
-      </c>
-      <c r="J21">
-        <v>0.0003336351628218027</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.343411333333333</v>
-      </c>
-      <c r="N21">
-        <v>19.030234</v>
-      </c>
-      <c r="O21">
-        <v>0.2070888436234783</v>
-      </c>
-      <c r="P21">
-        <v>0.2070888436234783</v>
-      </c>
-      <c r="Q21">
-        <v>0.8132803091648888</v>
-      </c>
-      <c r="R21">
-        <v>7.319522782484</v>
-      </c>
-      <c r="S21">
-        <v>6.909212006089801E-05</v>
-      </c>
-      <c r="T21">
-        <v>6.9092120060898E-05</v>
+        <v>0.0001205773240974628</v>
       </c>
     </row>
   </sheetData>
